--- a/500all/speech_level/speeches_CHRG-114hhrg95072.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95072.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412283</t>
   </si>
   <si>
-    <t>Duncan Hunter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hunter. This subcommittee will come to order. Welcome everybody. The subcommittee is meeting today to review the Federal Government's efforts to confront transnational drug smuggling and stem the flow of illegal drugs to the United States.    Let me start by saying I had a great trip down in Florida with you, Admiral Schultz, great, great time with JIATF [Joint Interagency Task Force] and General Kelly, and I got to see firsthand the problems that our Nation faces in stemming the flow of illegal drugs to our shores.    My visit to the Coast Guard units as well as JIATF South was insightful. I was able to witness the impact limited resources and deteriorating assets is having on the Coast Guard's ability to effectively carry out its drug interdiction mission.    The flow of illegal drugs to the United States continues to be a problem. Illegal drugs placed a strain on our Nation's healthcare and criminal justice systems. Their smuggling routes and methods are easily translated into transport routes for other illicit goods that pose significant safety and security concerns to U.S. citizens.    Some of the most notorious and violent criminals, cartels, and narcoterrorists are directly responsible for drug violence, crime, and corruption that are destabilizing foreign nations and endangering the lives of American citizens here and abroad. Representing southern California, I am very aware of the harm violent drug traffickers inflict on our communities.    In recent years, violence stemming from the drug trade has spilled over the Mexican border and has led to the kidnappings and murders of American citizens and U.S. law enforcement officers. It was only a few years ago that a Coast Guard servicemember lost his life during counterdrug operations near Santa Cruz Island, California.    Coast Guard Senior Chief Petty Officer Terrell Horne was leading a boarding team when he was critically injured interdicting and apprehending illegal drug smugglers. The Coast Guard recently announced it will honor Senior Chief Horne's sacrifice by naming a Fast Response Cutter after him.    The Coast Guard, U.S. Navy, and allied partner nations continue their efforts to stop boat drug shipments at sea. Interdicting shipments of drugs at sea before they are broken down into smaller packages is the most effective and efficient way to stop the flow of illegal drugs across our borders.    The Coast Guard is the lead agency in maritime interdiction because it has unique military and law enforcement authorities which enable it to seamlessly disable a drug smuggling vessel, seize the drugs, and arrest the crew. But that only works when the Coast Guard, SOUTHCOM [U.S. Southern Command], and partner agencies and nations have the resources and assets to act on intelligence targets.    Unfortunately, however, cuts to the military's budget, sequestration, and aging and rapidly failing Coast Guard assets are undermining mission success. In recent years, SOUTHCOM and the Coast Guard were only able to interdict slightly more than 20 percent of the cocaine bound for the United States. That is roughly half the national target for 2015.    In addition, the Coast Guard has been consistently unable meet its internal performance goal for drug removal in the transit zone. In fact, since 2009, the Coast Guard has only achieved its cocaine interdiction target once. I hope today's hearing will help clarify the direction we need to take in the future to ensure our men and women in uniform have the resources and assets that they need to carry out this and other critical missions.    With that, I yield to Ranking Member Garamendi.</t>
   </si>
   <si>
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. I thank you very much, Mr. Chairman, and thank you for holding the hearing and for the witnesses. It is good to see you once again and look forward to your testimony.    This hearing is very, very important. We need to understand our efforts and the effort of our international partners to interdict the flow of illegal drugs into the United States from points all across the Western Hemisphere.    At the hearing convened last April, I stressed that the current age of budgetary austerity, it remains essential for Congress to scrutinize every drug interdiction program to ensure that the various Federal agencies involved are best coordinating and utilizing their resources to the greatest effect in the transit zone. That sentiment is just as valid today as we take up this matter again.    Additionally, I also voice concern about the imminent operational gap that the Coast Guard will have to contend with its aging legacy fleet of High and Medium Endurance Cutters as they are decommissioned or laid up more frequently for emergency repairs and maintenance.    If anything, the recent hearing last month on the Coast Guard acquisition activities further corroborate my belief that the Coast Guard is going to be extremely hard pressed to maintain its existing capabilities, much less increase the tempo of their operations, and as you suggest, Mr. Chairman, make their bogey, that is, to get the number of drugs that they intend to.    This raises the fundamental question, if the Coast Guard operational readiness and capability is likely to be degraded, at least until we begin to see the delivery of the new Offshore Patrol Cutters, where can we turn now to find the assets and resources necessary to plug the hole? Unfortunately, it would appear that the Navy is not where we will go. They are scaling back the number of frigates and other assets it deploys through SOUTHCOM to support the JIATF operations.    Moreover, despite the fact that the transit zone across the Western Hemisphere is roughly twice the size of the continental mass of the United States, other bureaus within the Department of Homeland Security continue to disproportionately allocate resources to reinforce the southern border, notwithstanding the data demonstrating that the maritime routes are becoming the preferred option for international criminal syndicates, and if supplemental resources are not going to be forthcoming soon, this leads us back to another fundamental question.    How can we reasonably expect the Coast Guard and other Federal agencies, for that matter, to accomplish their vital missions? As I stated at the last hearing: If we want to succeed in our efforts to prevent illegal drugs from entering our country, we can no longer ignore the fact that inadequate Coast Guard budgets have left the Service out on the precipice, and until we have resolved the issue of this reality in full, we are far more likely to see more illicit drugs, more illegal migrants and other harmful contraband crossing our shores.    Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Michel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Michel. Sir, before I start my statement, with the committee's permission, if I could just take a couple of minutes to talk about a breaking news item.</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t xml:space="preserve">    Mr. Hunter. Thanks, Admiral.    Our next witness today is Rear Admiral Karl Schultz, the Director of Operations for U.S. Southern Command. You are recognized, Admiral.</t>
   </si>
   <si>
-    <t>Schultz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Schultz. Chairman Hunter, Ranking Member Garamendi, members of the committee, thank you for the opportunity to appear before you today on behalf of General John Kelly, commander, U.S. Southern Command. I look forward to discussing how the U.S. Southern Command works with the Coast Guard to defend the southern approaches to the United States.    Every day, our southern approaches are under direct assault by sophisticated criminal networks whose smuggling operations reach across Latin America and deep into the United States. These groups exploit every land, sea, and air border to traffic drugs, people, and weapons throughout the Western Hemisphere and beyond. Their corrosive activities pose a direct threat to our national security and the stability of our partner nations in the region.    Mr. Chairman, it will take a network to defeat a network, which is exactly what SOUTHCOM, the Coast Guard, our interagency, and international partners are building through multinational counterdrug operations, and capacity-building efforts in Central America, South America, and the Caribbean Basin.    As you know, the Department of Defense has a congressionally mandated statutory responsibility for the detection and monitoring of illicit drugs in the air and maritime domains. Our Joint Interagency Task Force South executes this responsibility working with agencies from the Department of Homeland Security, the Justice Department, the Department of State, and partner nation defense and security forces to disrupt illicit trafficking and dismantle criminal organizations.    JIATF South has long been the gold standard in leading and orchestrating successful interdiction operations. Last year, the JIATF South team supported the disruption of 158 metric tons of cocaine. That is 76 percent of the total amount of cocaine seized by all U.S. Government agencies.    JIATF South's continued success, however, could be in jeopardy. Due to other global defense priorities, limited Department of Defense resources are available to source the counterdrug mission, and we have been forced to rely heavily on Coast Guard support, including their personnel, aircraft, and cutters.    Come this September, the U.S. Navy will have a minimal presence in the SOUTHCOM area of responsibility. Mr. Chairman, for all intents and purposes, the Coast Guard is U.S. Southern Command's Navy, which is why we share and echo the Coast Guard Commandant's concern over the Coast Guard's ability to sustain its aging fleet while recapitalizing its fleet of Fast Response, Offshore, and National Security Cutters.    As an economy-of-force geographic combatant command, we at U.S. Southern Command are concerned by the limited availability of Department of Defense assets, including U.S. Navy frigates, airborne ISR [intelligence, surveillance, and reconnaissance], and national technical means to support our missions. For both the Department of Defense and the Coast Guard, asset shortfalls and potential asset failures are the greatest threats to our ability to defend the United States against the relentless onslaught of transnational criminal activity and illicit drugs.    Finally, I will close by noting that the possible return of sequestration would be disastrous for the counterdrug mission. It will undermine our ability to remain engaged with our partners, undermine our awareness of threats in the region, and undermine our ability to stop them before they reach our shores. I look forward to discussing these and the other issues with you. Thank you.</t>
   </si>
   <si>
@@ -229,9 +217,6 @@
     <t>400607</t>
   </si>
   <si>
-    <t>Mark Sanford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sanford. Thank you, Mr. Chairman. I guess what I would like to do for one second is go up 30,000 feet, and so this is not a commentary on how hard your men and women are working, the quality of their efforts, the hardiness of their pursuit, but really a macro question, because I remember being in hearings like this the last time I was in Congress. I remember going down to Howard Air Force Base, and I remember at that time there wasn't enough money in drug ops to send up an AWACS [airborne warning and control system] every day of the week, and so they would send one up once a week, once every 2 weeks.    And then the smart drug runners, they simply paid for a spotter, when the plane goes up that has the big dish, let us know, and then like the really stupid guys, the uninformed guys, they would still send a boat running north, and you would look at these films out of an F-16 in pursuit of the boat, they are throwing the drugs out of the boat, and once the boat is emptied, they would turn around, you burned a bit of jet fuel, you got a good video, but that was about it, and it was sort of catch-and-release.    In contrast, I remember at that time, as part of our payments to Peru in the drug ops war, they had a shoot-down policy, and I remember watching videos of planes actually being shot down in Peru. And so it just seems to me that in war, it is either war or it is not. And what we have had for a long while in this country is sort of a middle ground when indeed you and the Navy and others do their duty. But in terms of actual result, really there isn't that much in the way of result.    I mean, any time you look at equation wherein 75 percent of what you are trying to stop is going through, then about 25 percent you are stopping, I mean, you have to question the validity of spending, you know, $25 billion, 6,000 folks, as you just mentioned, in this effort, in terms of result. And you look at how scarce dollars are in the American system, how much scarcer they are going to get going forward. I mean, Alan Simpson and Erskine Bowles, their point was the most predictable financial crisis in the history of man is coming our way, given the squeeze financially that we are going to be in as a country. And therefore we have, I think a requirement, whether in this committee or any other committee, to fund those things that actually work.    And so this is not about, again, the validity of your effort, you guys are working hard, but at the end of the day, the end results, I found wanting, and in contrast, one more data point. I remember being down on a drug ops trip, again, last time I was here, and there had been like 4,000 judges killed in the country of Colombia. I mean, it was all out war down there, and so I--you know, I just really begin to question, are we doing anything? What is your thought on that?</t>
   </si>
   <si>
@@ -307,9 +292,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you. Interesting discussion. I am going to follow up on that, but just first, quick question is, it sounds like what you are saying here today is that you need more assets to do a more effective job. Are the new assets, is it new technology or is it more of the assets that you have and you just need more of them?</t>
   </si>
   <si>
@@ -362,9 +344,6 @@
   </si>
   <si>
     <t>412621</t>
-  </si>
-  <si>
-    <t>Carlos Curbelo</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you very much, Mr. Chairman, for this hearing, and I thank Rear Admiral Schultz and Vice Admiral Michel for their presence here today. As the Representative from Florida's southernmost district, I have a very special appreciation for the Coast Guard and its mission. Thank you for keeping our people safe and secure.    I am hoping you can address generally this phenomenon we are seeing of drug transit routes shifting to the Caribbean. Have you seen a spike in the past several years and what impact has this had on your budget?</t>
@@ -940,11 +919,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -964,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -992,11 +967,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1016,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1044,11 +1015,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1068,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1096,11 +1063,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1120,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1146,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1174,11 +1135,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1198,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1226,11 +1183,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1250,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1278,11 +1231,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1302,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1330,11 +1279,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1354,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1382,11 +1327,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1406,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1434,11 +1375,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1458,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1486,11 +1423,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1510,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1538,11 +1471,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1562,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1590,11 +1519,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1614,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1642,11 +1567,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1666,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1694,11 +1615,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1718,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1746,11 +1663,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1770,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1798,11 +1711,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1822,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1850,11 +1759,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1874,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1902,11 +1807,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1926,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1952,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1978,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2004,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2030,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2056,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2082,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2108,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2134,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2160,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2186,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2212,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2238,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2266,11 +2143,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2290,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2316,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2342,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2368,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2394,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>71</v>
-      </c>
-      <c r="H58" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2420,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2446,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2472,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2498,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
-      </c>
-      <c r="G62" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2524,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2550,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
-      </c>
-      <c r="G64" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2576,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2602,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2628,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2654,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>70</v>
-      </c>
-      <c r="G68" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2680,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2706,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
-      </c>
-      <c r="G70" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2734,11 +2575,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2758,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
-      </c>
-      <c r="G72" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2784,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2810,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
-      </c>
-      <c r="G74" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2838,11 +2671,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2862,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2890,11 +2719,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2914,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" t="s">
-        <v>97</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2940,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2966,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" t="s">
-        <v>97</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2992,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3018,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3044,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
         <v>97</v>
-      </c>
-      <c r="H83" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3072,11 +2887,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3096,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3122,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3148,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3174,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3200,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3226,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3252,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3278,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3304,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3332,11 +3127,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3356,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
-      </c>
-      <c r="G95" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3382,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3408,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>115</v>
-      </c>
-      <c r="G97" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3434,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3460,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3486,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>115</v>
-      </c>
-      <c r="G100" t="s">
-        <v>116</v>
-      </c>
-      <c r="H100" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3512,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3538,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
-      </c>
-      <c r="G102" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3566,11 +3343,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3590,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3618,11 +3391,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3642,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3670,11 +3439,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3694,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3722,11 +3487,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3746,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3774,11 +3535,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3798,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3826,11 +3583,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3850,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3878,11 +3631,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3902,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3930,11 +3679,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3954,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3982,11 +3727,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4006,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4034,11 +3775,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4058,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4086,11 +3823,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4110,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4138,11 +3871,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4162,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4190,11 +3919,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4214,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4242,11 +3967,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4268,11 +3991,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4292,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4318,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4344,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4370,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4396,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4422,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4448,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4476,11 +4183,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4500,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4528,11 +4231,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4552,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4578,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4606,11 +4303,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4630,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4658,11 +4351,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4682,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4710,11 +4399,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4734,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4762,11 +4447,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4786,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4814,11 +4495,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4838,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4866,11 +4543,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95072.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95072.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412283</t>
   </si>
   <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hunter. This subcommittee will come to order. Welcome everybody. The subcommittee is meeting today to review the Federal Government's efforts to confront transnational drug smuggling and stem the flow of illegal drugs to the United States.    Let me start by saying I had a great trip down in Florida with you, Admiral Schultz, great, great time with JIATF [Joint Interagency Task Force] and General Kelly, and I got to see firsthand the problems that our Nation faces in stemming the flow of illegal drugs to our shores.    My visit to the Coast Guard units as well as JIATF South was insightful. I was able to witness the impact limited resources and deteriorating assets is having on the Coast Guard's ability to effectively carry out its drug interdiction mission.    The flow of illegal drugs to the United States continues to be a problem. Illegal drugs placed a strain on our Nation's healthcare and criminal justice systems. Their smuggling routes and methods are easily translated into transport routes for other illicit goods that pose significant safety and security concerns to U.S. citizens.    Some of the most notorious and violent criminals, cartels, and narcoterrorists are directly responsible for drug violence, crime, and corruption that are destabilizing foreign nations and endangering the lives of American citizens here and abroad. Representing southern California, I am very aware of the harm violent drug traffickers inflict on our communities.    In recent years, violence stemming from the drug trade has spilled over the Mexican border and has led to the kidnappings and murders of American citizens and U.S. law enforcement officers. It was only a few years ago that a Coast Guard servicemember lost his life during counterdrug operations near Santa Cruz Island, California.    Coast Guard Senior Chief Petty Officer Terrell Horne was leading a boarding team when he was critically injured interdicting and apprehending illegal drug smugglers. The Coast Guard recently announced it will honor Senior Chief Horne's sacrifice by naming a Fast Response Cutter after him.    The Coast Guard, U.S. Navy, and allied partner nations continue their efforts to stop boat drug shipments at sea. Interdicting shipments of drugs at sea before they are broken down into smaller packages is the most effective and efficient way to stop the flow of illegal drugs across our borders.    The Coast Guard is the lead agency in maritime interdiction because it has unique military and law enforcement authorities which enable it to seamlessly disable a drug smuggling vessel, seize the drugs, and arrest the crew. But that only works when the Coast Guard, SOUTHCOM [U.S. Southern Command], and partner agencies and nations have the resources and assets to act on intelligence targets.    Unfortunately, however, cuts to the military's budget, sequestration, and aging and rapidly failing Coast Guard assets are undermining mission success. In recent years, SOUTHCOM and the Coast Guard were only able to interdict slightly more than 20 percent of the cocaine bound for the United States. That is roughly half the national target for 2015.    In addition, the Coast Guard has been consistently unable meet its internal performance goal for drug removal in the transit zone. In fact, since 2009, the Coast Guard has only achieved its cocaine interdiction target once. I hope today's hearing will help clarify the direction we need to take in the future to ensure our men and women in uniform have the resources and assets that they need to carry out this and other critical missions.    With that, I yield to Ranking Member Garamendi.</t>
   </si>
   <si>
     <t>412382</t>
   </si>
   <si>
+    <t>Garamendi</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garamendi. I thank you very much, Mr. Chairman, and thank you for holding the hearing and for the witnesses. It is good to see you once again and look forward to your testimony.    This hearing is very, very important. We need to understand our efforts and the effort of our international partners to interdict the flow of illegal drugs into the United States from points all across the Western Hemisphere.    At the hearing convened last April, I stressed that the current age of budgetary austerity, it remains essential for Congress to scrutinize every drug interdiction program to ensure that the various Federal agencies involved are best coordinating and utilizing their resources to the greatest effect in the transit zone. That sentiment is just as valid today as we take up this matter again.    Additionally, I also voice concern about the imminent operational gap that the Coast Guard will have to contend with its aging legacy fleet of High and Medium Endurance Cutters as they are decommissioned or laid up more frequently for emergency repairs and maintenance.    If anything, the recent hearing last month on the Coast Guard acquisition activities further corroborate my belief that the Coast Guard is going to be extremely hard pressed to maintain its existing capabilities, much less increase the tempo of their operations, and as you suggest, Mr. Chairman, make their bogey, that is, to get the number of drugs that they intend to.    This raises the fundamental question, if the Coast Guard operational readiness and capability is likely to be degraded, at least until we begin to see the delivery of the new Offshore Patrol Cutters, where can we turn now to find the assets and resources necessary to plug the hole? Unfortunately, it would appear that the Navy is not where we will go. They are scaling back the number of frigates and other assets it deploys through SOUTHCOM to support the JIATF operations.    Moreover, despite the fact that the transit zone across the Western Hemisphere is roughly twice the size of the continental mass of the United States, other bureaus within the Department of Homeland Security continue to disproportionately allocate resources to reinforce the southern border, notwithstanding the data demonstrating that the maritime routes are becoming the preferred option for international criminal syndicates, and if supplemental resources are not going to be forthcoming soon, this leads us back to another fundamental question.    How can we reasonably expect the Coast Guard and other Federal agencies, for that matter, to accomplish their vital missions? As I stated at the last hearing: If we want to succeed in our efforts to prevent illegal drugs from entering our country, we can no longer ignore the fact that inadequate Coast Guard budgets have left the Service out on the precipice, and until we have resolved the issue of this reality in full, we are far more likely to see more illicit drugs, more illegal migrants and other harmful contraband crossing our shores.    Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Michel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Michel. Sir, before I start my statement, with the committee's permission, if I could just take a couple of minutes to talk about a breaking news item.</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t xml:space="preserve">    Mr. Hunter. Thanks, Admiral.    Our next witness today is Rear Admiral Karl Schultz, the Director of Operations for U.S. Southern Command. You are recognized, Admiral.</t>
   </si>
   <si>
+    <t>Schultz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Schultz. Chairman Hunter, Ranking Member Garamendi, members of the committee, thank you for the opportunity to appear before you today on behalf of General John Kelly, commander, U.S. Southern Command. I look forward to discussing how the U.S. Southern Command works with the Coast Guard to defend the southern approaches to the United States.    Every day, our southern approaches are under direct assault by sophisticated criminal networks whose smuggling operations reach across Latin America and deep into the United States. These groups exploit every land, sea, and air border to traffic drugs, people, and weapons throughout the Western Hemisphere and beyond. Their corrosive activities pose a direct threat to our national security and the stability of our partner nations in the region.    Mr. Chairman, it will take a network to defeat a network, which is exactly what SOUTHCOM, the Coast Guard, our interagency, and international partners are building through multinational counterdrug operations, and capacity-building efforts in Central America, South America, and the Caribbean Basin.    As you know, the Department of Defense has a congressionally mandated statutory responsibility for the detection and monitoring of illicit drugs in the air and maritime domains. Our Joint Interagency Task Force South executes this responsibility working with agencies from the Department of Homeland Security, the Justice Department, the Department of State, and partner nation defense and security forces to disrupt illicit trafficking and dismantle criminal organizations.    JIATF South has long been the gold standard in leading and orchestrating successful interdiction operations. Last year, the JIATF South team supported the disruption of 158 metric tons of cocaine. That is 76 percent of the total amount of cocaine seized by all U.S. Government agencies.    JIATF South's continued success, however, could be in jeopardy. Due to other global defense priorities, limited Department of Defense resources are available to source the counterdrug mission, and we have been forced to rely heavily on Coast Guard support, including their personnel, aircraft, and cutters.    Come this September, the U.S. Navy will have a minimal presence in the SOUTHCOM area of responsibility. Mr. Chairman, for all intents and purposes, the Coast Guard is U.S. Southern Command's Navy, which is why we share and echo the Coast Guard Commandant's concern over the Coast Guard's ability to sustain its aging fleet while recapitalizing its fleet of Fast Response, Offshore, and National Security Cutters.    As an economy-of-force geographic combatant command, we at U.S. Southern Command are concerned by the limited availability of Department of Defense assets, including U.S. Navy frigates, airborne ISR [intelligence, surveillance, and reconnaissance], and national technical means to support our missions. For both the Department of Defense and the Coast Guard, asset shortfalls and potential asset failures are the greatest threats to our ability to defend the United States against the relentless onslaught of transnational criminal activity and illicit drugs.    Finally, I will close by noting that the possible return of sequestration would be disastrous for the counterdrug mission. It will undermine our ability to remain engaged with our partners, undermine our awareness of threats in the region, and undermine our ability to stop them before they reach our shores. I look forward to discussing these and the other issues with you. Thank you.</t>
   </si>
   <si>
@@ -217,6 +238,12 @@
     <t>400607</t>
   </si>
   <si>
+    <t>Sanford</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sanford. Thank you, Mr. Chairman. I guess what I would like to do for one second is go up 30,000 feet, and so this is not a commentary on how hard your men and women are working, the quality of their efforts, the hardiness of their pursuit, but really a macro question, because I remember being in hearings like this the last time I was in Congress. I remember going down to Howard Air Force Base, and I remember at that time there wasn't enough money in drug ops to send up an AWACS [airborne warning and control system] every day of the week, and so they would send one up once a week, once every 2 weeks.    And then the smart drug runners, they simply paid for a spotter, when the plane goes up that has the big dish, let us know, and then like the really stupid guys, the uninformed guys, they would still send a boat running north, and you would look at these films out of an F-16 in pursuit of the boat, they are throwing the drugs out of the boat, and once the boat is emptied, they would turn around, you burned a bit of jet fuel, you got a good video, but that was about it, and it was sort of catch-and-release.    In contrast, I remember at that time, as part of our payments to Peru in the drug ops war, they had a shoot-down policy, and I remember watching videos of planes actually being shot down in Peru. And so it just seems to me that in war, it is either war or it is not. And what we have had for a long while in this country is sort of a middle ground when indeed you and the Navy and others do their duty. But in terms of actual result, really there isn't that much in the way of result.    I mean, any time you look at equation wherein 75 percent of what you are trying to stop is going through, then about 25 percent you are stopping, I mean, you have to question the validity of spending, you know, $25 billion, 6,000 folks, as you just mentioned, in this effort, in terms of result. And you look at how scarce dollars are in the American system, how much scarcer they are going to get going forward. I mean, Alan Simpson and Erskine Bowles, their point was the most predictable financial crisis in the history of man is coming our way, given the squeeze financially that we are going to be in as a country. And therefore we have, I think a requirement, whether in this committee or any other committee, to fund those things that actually work.    And so this is not about, again, the validity of your effort, you guys are working hard, but at the end of the day, the end results, I found wanting, and in contrast, one more data point. I remember being down on a drug ops trip, again, last time I was here, and there had been like 4,000 judges killed in the country of Colombia. I mean, it was all out war down there, and so I--you know, I just really begin to question, are we doing anything? What is your thought on that?</t>
   </si>
   <si>
@@ -292,6 +319,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you. Interesting discussion. I am going to follow up on that, but just first, quick question is, it sounds like what you are saying here today is that you need more assets to do a more effective job. Are the new assets, is it new technology or is it more of the assets that you have and you just need more of them?</t>
   </si>
   <si>
@@ -344,6 +377,12 @@
   </si>
   <si>
     <t>412621</t>
+  </si>
+  <si>
+    <t>Curbelo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you very much, Mr. Chairman, for this hearing, and I thank Rear Admiral Schultz and Vice Admiral Michel for their presence here today. As the Representative from Florida's southernmost district, I have a very special appreciation for the Coast Guard and its mission. Thank you for keeping our people safe and secure.    I am hoping you can address generally this phenomenon we are seeing of drug transit routes shifting to the Caribbean. Have you seen a spike in the past several years and what impact has this had on your budget?</t>
@@ -869,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +916,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3653 +938,4264 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
       <c r="H62" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G64" t="s">
+        <v>74</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G66" t="s">
+        <v>74</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G72" t="s">
+        <v>74</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G74" t="s">
+        <v>74</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>101</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G83" t="s">
+        <v>101</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G95" t="s">
+        <v>121</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G97" t="s">
+        <v>121</v>
+      </c>
       <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G100" t="s">
+        <v>121</v>
+      </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G102" t="s">
+        <v>121</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>32</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>32</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>32</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>32</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>32</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>168</v>
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95072.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95072.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412283</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Hunter</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412382</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Garamendi</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
   </si>
   <si>
     <t>400607</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Sanford</t>
@@ -908,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +928,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,4261 +953,4568 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G83" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G95" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G97" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G102" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>25</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>25</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>25</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>32</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>25</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>22</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>25</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>32</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>35</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>25</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>32</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>35</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>22</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>25</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>22</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>25</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>22</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>25</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>32</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s">
-        <v>22</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>25</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>181</v>
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
